--- a/biology/Zoologie/Eurema_euterpiformis/Eurema_euterpiformis.xlsx
+++ b/biology/Zoologie/Eurema_euterpiformis/Eurema_euterpiformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema euterpiformis est un insecte lépidoptère de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Eurema.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema euterpiformis a été décrit par Munroe en 1947.
-Synonyme : Pyrisitia euterpiformis[1]..
+Synonyme : Pyrisitia euterpiformis..
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,12 +582,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema euterpiformis est présent à Haïti.
+Sur les autres projets Wikimedia :
+Eurema euterpiformis, sur Wikimedia CommonsEurema euterpiformis, sur Wikispecies
+</t>
         </is>
       </c>
     </row>
@@ -601,13 +622,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eurema euterpiformis est présent à Haïti[1].
-Sur les autres projets Wikimedia :
-Eurema euterpiformis, sur Wikimedia CommonsEurema euterpiformis, sur Wikispecies
-Biotope
-Il réside aussi bien dans des forêts de pin que dans des mangroves[2].
-Protection
-Pas de statut de protection particulier.
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside aussi bien dans des forêts de pin que dans des mangroves.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eurema_euterpiformis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_euterpiformis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
